--- a/doc_cs2/sprint3/scrum_sprint3.xlsx
+++ b/doc_cs2/sprint3/scrum_sprint3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirjam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive - Berner Fachhochschule\CS2\CS2_Task05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6588" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -666,12 +666,6 @@
     <t>fricg</t>
   </si>
   <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>default statistik</t>
-  </si>
-  <si>
     <t>CSS</t>
   </si>
   <si>
@@ -748,12 +742,18 @@
   </si>
   <si>
     <t>Mail-Versand</t>
+  </si>
+  <si>
+    <t>persistence anpassen</t>
+  </si>
+  <si>
+    <t>Medikamentenliste ausgeben oder mit API verbinden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2508,22 +2508,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2615,26 +2615,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.86328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" customWidth="1"/>
+    <col min="3" max="3" width="37.1328125" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.796875" customWidth="1"/>
+    <col min="7" max="7" width="10.1328125" customWidth="1"/>
+    <col min="8" max="8" width="14.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="29" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="30">
         <v>0</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="53.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="53.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="44.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="44.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="20">
         <v>22</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="20">
         <v>23</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="39"/>
       <c r="B29" s="43" t="s">
         <v>89</v>
@@ -3273,7 +3273,7 @@
       <c r="G29" s="41"/>
       <c r="H29" s="42"/>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="5"/>
       <c r="B30" s="13"/>
       <c r="C30" s="7"/>
@@ -3285,7 +3285,7 @@
       <c r="G30" s="41"/>
       <c r="H30" s="42"/>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
         <v>91</v>
@@ -3299,7 +3299,7 @@
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="13"/>
       <c r="C32" s="7"/>
@@ -3309,7 +3309,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -3317,7 +3317,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -3325,7 +3325,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
@@ -3333,7 +3333,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
@@ -3341,7 +3341,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
@@ -3349,7 +3349,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
@@ -3357,7 +3357,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -3365,7 +3365,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
@@ -3373,7 +3373,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
@@ -3381,7 +3381,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
@@ -3389,7 +3389,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
@@ -3397,200 +3397,200 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="5">
         <v>73</v>
       </c>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="5">
         <v>74</v>
       </c>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="5">
         <v>75</v>
       </c>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="5">
         <v>76</v>
       </c>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="5">
         <v>77</v>
       </c>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="5">
         <v>78</v>
       </c>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="5">
         <v>79</v>
       </c>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="5">
         <v>80</v>
       </c>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C90" s="6"/>
     </row>
   </sheetData>
@@ -3600,30 +3600,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="7.53125" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.46484375" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" style="21" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.1328125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="22.21875" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="7.86328125" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" customWidth="1"/>
+    <col min="11" max="11" width="7.1328125" customWidth="1"/>
+    <col min="12" max="12" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="33" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>96</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="32" t="s">
         <v>100</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A4" s="32" t="s">
         <v>104</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A5" s="32" t="s">
         <v>109</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A6" s="32" t="s">
         <v>112</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A7" s="32" t="s">
         <v>115</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>118</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A9" s="32" t="s">
         <v>121</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="32"/>
       <c r="B10" s="15"/>
       <c r="C10" s="13" t="s">
@@ -3995,7 +3995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="32" t="s">
         <v>126</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="32" t="s">
         <v>130</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="32" t="s">
         <v>133</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="32"/>
       <c r="B14" s="15"/>
       <c r="C14" s="13" t="s">
@@ -4141,7 +4141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="32" t="s">
         <v>138</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="32" t="s">
         <v>141</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="83.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="83.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="32" t="s">
         <v>144</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="32" t="s">
         <v>147</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
@@ -4307,7 +4307,7 @@
       <c r="K19" s="26"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A20" s="32"/>
       <c r="B20" s="15"/>
       <c r="C20" s="13"/>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="15"/>
       <c r="C21" s="13"/>
@@ -4346,7 +4346,7 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="18" t="s">
         <v>19</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="19" t="s">
         <v>152</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="19" t="s">
         <v>156</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="114" x14ac:dyDescent="0.45">
       <c r="A25" s="19" t="s">
         <v>158</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="19" t="s">
         <v>160</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="19" t="s">
         <v>163</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A28" s="19" t="s">
         <v>166</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A29" s="19" t="s">
         <v>171</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="19" t="s">
         <v>172</v>
       </c>
@@ -4688,9 +4688,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A31" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B31" s="15">
         <v>2</v>
@@ -4726,7 +4726,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="19" t="s">
         <v>176</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
@@ -4778,7 +4778,7 @@
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
     </row>
-    <row r="34" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="19"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -4804,10 +4804,10 @@
       </c>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="D35" s="21"/>
     </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
         <v>19</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="17" t="s">
         <v>194</v>
       </c>
@@ -4874,12 +4874,12 @@
         <v>4</v>
       </c>
       <c r="L37" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B38" s="15">
         <v>3</v>
@@ -4906,12 +4906,12 @@
         <v>2</v>
       </c>
       <c r="L38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B39" s="15">
         <v>3</v>
@@ -4923,7 +4923,7 @@
         <v>182</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
@@ -4938,12 +4938,12 @@
         <v>2</v>
       </c>
       <c r="L39" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B40" s="15">
         <v>3</v>
@@ -4970,12 +4970,12 @@
         <v>2</v>
       </c>
       <c r="L40" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B41" s="15">
         <v>3</v>
@@ -4987,7 +4987,7 @@
         <v>200</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
@@ -5002,12 +5002,12 @@
         <v>2</v>
       </c>
       <c r="L41" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B42" s="15">
         <v>3</v>
@@ -5016,7 +5016,7 @@
         <v>164</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -5031,12 +5031,12 @@
         <v>4</v>
       </c>
       <c r="L42" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B43" s="15">
         <v>3</v>
@@ -5044,15 +5044,17 @@
       <c r="C43" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="13"/>
+      <c r="D43" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="E43" s="21" t="s">
         <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
@@ -5061,12 +5063,12 @@
         <v>6</v>
       </c>
       <c r="L43" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B44" s="15">
         <v>3</v>
@@ -5093,12 +5095,12 @@
         <v>2</v>
       </c>
       <c r="L44" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A45" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B45" s="15">
         <v>3</v>
@@ -5125,12 +5127,12 @@
         <v>2</v>
       </c>
       <c r="L45" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B46" s="15">
         <v>3</v>
@@ -5157,12 +5159,12 @@
         <v>2</v>
       </c>
       <c r="L46" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B47" s="15">
         <v>3</v>
@@ -5189,12 +5191,12 @@
         <v>2</v>
       </c>
       <c r="L47" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A48" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B48" s="15">
         <v>3</v>
@@ -5221,12 +5223,12 @@
         <v>2</v>
       </c>
       <c r="L48" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B49" s="15">
         <v>3</v>
@@ -5253,12 +5255,12 @@
         <v>2</v>
       </c>
       <c r="L49" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B50" s="15">
         <v>3</v>
@@ -5287,12 +5289,12 @@
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B51" s="15">
         <v>3</v>
@@ -5321,12 +5323,12 @@
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B52" s="15">
         <v>3</v>
@@ -5355,12 +5357,12 @@
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
       <c r="L52" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B53" s="15">
         <v>3</v>
@@ -5389,12 +5391,12 @@
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B54" s="15">
         <v>3</v>
@@ -5423,12 +5425,12 @@
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
       <c r="L54" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B55" s="15">
         <v>3</v>
@@ -5455,12 +5457,12 @@
         <v>2</v>
       </c>
       <c r="L55" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B56" s="15">
         <v>3</v>
@@ -5487,42 +5489,39 @@
         <v>6</v>
       </c>
       <c r="L56" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="89.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B57" s="15">
         <v>3</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>129</v>
+        <v>153</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>233</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H57" t="s">
         <v>29</v>
       </c>
       <c r="I57" s="15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L57" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
@@ -5536,12 +5535,12 @@
       <c r="K58" s="27"/>
       <c r="L58" s="27"/>
     </row>
-    <row r="59" spans="1:12" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="73.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="19"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="15"/>
@@ -5551,7 +5550,7 @@
       </c>
       <c r="I59" s="28">
         <f>SUM(I37:I57)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J59" s="15" t="s">
         <v>151</v>
@@ -5566,23 +5565,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>187</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5650,7 +5649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B3" s="4"/>
       <c r="F3">
         <v>1</v>
@@ -5695,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B4" s="4"/>
       <c r="F4">
         <v>2</v>
@@ -5709,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F5">
         <v>3</v>
       </c>
@@ -5724,7 +5723,7 @@
       <c r="X5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F6">
         <v>4</v>
       </c>
@@ -5738,7 +5737,7 @@
       </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F7">
         <v>5</v>
       </c>
@@ -5752,7 +5751,7 @@
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F8">
         <v>6</v>
       </c>
@@ -5766,7 +5765,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F9">
         <v>7</v>
       </c>
@@ -5780,7 +5779,7 @@
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F10">
         <v>8</v>
       </c>
@@ -5794,7 +5793,7 @@
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F11">
         <v>9</v>
       </c>
@@ -5808,7 +5807,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F12">
         <v>10</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F13">
         <v>11</v>
       </c>
@@ -5834,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F14">
         <v>12</v>
       </c>
@@ -5847,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F15">
         <v>13</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="F16">
         <v>14</v>
       </c>
